--- a/Code/Results/Cases/Case_3_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.017808273476762</v>
+        <v>1.044118602376014</v>
       </c>
       <c r="D2">
-        <v>1.036893441408324</v>
+        <v>1.052413044249146</v>
       </c>
       <c r="E2">
-        <v>1.021565902919765</v>
+        <v>1.042015255067438</v>
       </c>
       <c r="F2">
-        <v>1.037928949996634</v>
+        <v>1.06129037144762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054980901503546</v>
+        <v>1.045797667916304</v>
       </c>
       <c r="J2">
-        <v>1.039469082580573</v>
+        <v>1.049185399982641</v>
       </c>
       <c r="K2">
-        <v>1.047861649678925</v>
+        <v>1.055161846104649</v>
       </c>
       <c r="L2">
-        <v>1.032732748966647</v>
+        <v>1.044793137517146</v>
       </c>
       <c r="M2">
-        <v>1.04888400275849</v>
+        <v>1.064014833492214</v>
       </c>
       <c r="N2">
-        <v>1.016343667678664</v>
+        <v>1.020185035266913</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023068304761854</v>
+        <v>1.045195091153771</v>
       </c>
       <c r="D3">
-        <v>1.041225604626141</v>
+        <v>1.053318796776867</v>
       </c>
       <c r="E3">
-        <v>1.025857068588651</v>
+        <v>1.04293628443152</v>
       </c>
       <c r="F3">
-        <v>1.043182245580986</v>
+        <v>1.062429079701077</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05711309790729</v>
+        <v>1.046159415554812</v>
       </c>
       <c r="J3">
-        <v>1.042949266073594</v>
+        <v>1.049908384772614</v>
       </c>
       <c r="K3">
-        <v>1.051356829697366</v>
+        <v>1.055880200810739</v>
       </c>
       <c r="L3">
-        <v>1.03616945695069</v>
+        <v>1.045524623071276</v>
       </c>
       <c r="M3">
-        <v>1.053290879096559</v>
+        <v>1.064967316977219</v>
       </c>
       <c r="N3">
-        <v>1.017563590722205</v>
+        <v>1.020433315968315</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026393689450693</v>
+        <v>1.045891626449108</v>
       </c>
       <c r="D4">
-        <v>1.043966813822866</v>
+        <v>1.053904836583693</v>
       </c>
       <c r="E4">
-        <v>1.028575348569342</v>
+        <v>1.043532525358555</v>
       </c>
       <c r="F4">
-        <v>1.046509241362228</v>
+        <v>1.063166344919341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058450315758777</v>
+        <v>1.046392158420051</v>
       </c>
       <c r="J4">
-        <v>1.04514551836444</v>
+        <v>1.050375605218781</v>
       </c>
       <c r="K4">
-        <v>1.053562048549669</v>
+        <v>1.056344349391665</v>
       </c>
       <c r="L4">
-        <v>1.038340705853908</v>
+        <v>1.04599758914073</v>
       </c>
       <c r="M4">
-        <v>1.056076965095817</v>
+        <v>1.065583495807906</v>
       </c>
       <c r="N4">
-        <v>1.018332689499505</v>
+        <v>1.020593581147256</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027773719530458</v>
+        <v>1.046184444423097</v>
       </c>
       <c r="D5">
-        <v>1.045104942357713</v>
+        <v>1.05415119739637</v>
       </c>
       <c r="E5">
-        <v>1.029704677709629</v>
+        <v>1.043783250302278</v>
       </c>
       <c r="F5">
-        <v>1.047891316790854</v>
+        <v>1.063476397929887</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059002639667138</v>
+        <v>1.046489684656141</v>
       </c>
       <c r="J5">
-        <v>1.046055983162144</v>
+        <v>1.050571881341492</v>
       </c>
       <c r="K5">
-        <v>1.054476106354121</v>
+        <v>1.056539315896045</v>
       </c>
       <c r="L5">
-        <v>1.039241385196482</v>
+        <v>1.046196339285977</v>
       </c>
       <c r="M5">
-        <v>1.05723316444907</v>
+        <v>1.065842503618876</v>
       </c>
       <c r="N5">
-        <v>1.018651328619864</v>
+        <v>1.020660863404083</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028004400684866</v>
+        <v>1.04623360954369</v>
       </c>
       <c r="D6">
-        <v>1.045295217830565</v>
+        <v>1.054192561852303</v>
       </c>
       <c r="E6">
-        <v>1.029893524386403</v>
+        <v>1.043825351945115</v>
       </c>
       <c r="F6">
-        <v>1.048122419898662</v>
+        <v>1.063528463458763</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059094809114999</v>
+        <v>1.046506041042861</v>
       </c>
       <c r="J6">
-        <v>1.046208114872678</v>
+        <v>1.050604828561732</v>
       </c>
       <c r="K6">
-        <v>1.054628830994002</v>
+        <v>1.056572042156886</v>
       </c>
       <c r="L6">
-        <v>1.039391915819086</v>
+        <v>1.04622970533655</v>
       </c>
       <c r="M6">
-        <v>1.057426428418733</v>
+        <v>1.06588599019412</v>
       </c>
       <c r="N6">
-        <v>1.018704559081486</v>
+        <v>1.020672154921788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026412199081987</v>
+        <v>1.045895539118036</v>
       </c>
       <c r="D7">
-        <v>1.043982076921891</v>
+        <v>1.053908128509627</v>
       </c>
       <c r="E7">
-        <v>1.028590490817106</v>
+        <v>1.043535875301327</v>
       </c>
       <c r="F7">
-        <v>1.046527773025476</v>
+        <v>1.063170487443252</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058457734199804</v>
+        <v>1.046393462823269</v>
       </c>
       <c r="J7">
-        <v>1.045157733868644</v>
+        <v>1.050378228433135</v>
       </c>
       <c r="K7">
-        <v>1.053574312757443</v>
+        <v>1.056346955178421</v>
       </c>
       <c r="L7">
-        <v>1.038352787781035</v>
+        <v>1.046000245183117</v>
       </c>
       <c r="M7">
-        <v>1.056092472739047</v>
+        <v>1.065586956815452</v>
       </c>
       <c r="N7">
-        <v>1.018336965389987</v>
+        <v>1.02059448054248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.019602591833202</v>
+        <v>1.044482412262068</v>
       </c>
       <c r="D8">
-        <v>1.038370702147978</v>
+        <v>1.052719156318909</v>
       </c>
       <c r="E8">
-        <v>1.023028549725684</v>
+        <v>1.042326464548004</v>
       </c>
       <c r="F8">
-        <v>1.039719717730945</v>
+        <v>1.061675111258432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05571047767616</v>
+        <v>1.045920198051401</v>
       </c>
       <c r="J8">
-        <v>1.04065705272575</v>
+        <v>1.049429860154028</v>
       </c>
       <c r="K8">
-        <v>1.049054840557317</v>
+        <v>1.055404757208758</v>
       </c>
       <c r="L8">
-        <v>1.03390536435537</v>
+        <v>1.045040419756818</v>
       </c>
       <c r="M8">
-        <v>1.050387252787628</v>
+        <v>1.064336759169036</v>
       </c>
       <c r="N8">
-        <v>1.016760245483798</v>
+        <v>1.020269023392067</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00696756181624</v>
+        <v>1.041992088415384</v>
       </c>
       <c r="D9">
-        <v>1.027980838130149</v>
+        <v>1.050623713274586</v>
       </c>
       <c r="E9">
-        <v>1.012754405254654</v>
+        <v>1.040197429248368</v>
       </c>
       <c r="F9">
-        <v>1.027136140567848</v>
+        <v>1.059043464021913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050528825144977</v>
+        <v>1.045076041565082</v>
       </c>
       <c r="J9">
-        <v>1.03227665412941</v>
+        <v>1.047754122787067</v>
       </c>
       <c r="K9">
-        <v>1.040635690691399</v>
+        <v>1.053739313134801</v>
       </c>
       <c r="L9">
-        <v>1.025643885735418</v>
+        <v>1.043346374995791</v>
       </c>
       <c r="M9">
-        <v>1.039803777056317</v>
+        <v>1.062132659050097</v>
       </c>
       <c r="N9">
-        <v>1.013818736437366</v>
+        <v>1.019692550505427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.998061458539298</v>
+        <v>1.040331694072561</v>
       </c>
       <c r="D10">
-        <v>1.020675914804613</v>
+        <v>1.049226537881583</v>
       </c>
       <c r="E10">
-        <v>1.005547462739381</v>
+        <v>1.03877949244934</v>
       </c>
       <c r="F10">
-        <v>1.018301726132929</v>
+        <v>1.057291298833279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046822005130582</v>
+        <v>1.044506406486332</v>
       </c>
       <c r="J10">
-        <v>1.026352200787665</v>
+        <v>1.046633870680484</v>
       </c>
       <c r="K10">
-        <v>1.034681631231813</v>
+        <v>1.052625535790538</v>
       </c>
       <c r="L10">
-        <v>1.01981727323694</v>
+        <v>1.042215189530505</v>
       </c>
       <c r="M10">
-        <v>1.032348216997067</v>
+        <v>1.060662511946408</v>
       </c>
       <c r="N10">
-        <v>1.01173619208368</v>
+        <v>1.019306238709303</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9940768107351942</v>
+        <v>1.039612674072357</v>
       </c>
       <c r="D11">
-        <v>1.017412980165127</v>
+        <v>1.048621494667264</v>
       </c>
       <c r="E11">
-        <v>1.002332296308576</v>
+        <v>1.038165847709126</v>
       </c>
       <c r="F11">
-        <v>1.01435816784605</v>
+        <v>1.056533124648735</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045151278117191</v>
+        <v>1.04425811876756</v>
       </c>
       <c r="J11">
-        <v>1.023698094364016</v>
+        <v>1.046148053011116</v>
       </c>
       <c r="K11">
-        <v>1.032013818403176</v>
+        <v>1.052142430347424</v>
       </c>
       <c r="L11">
-        <v>1.017210362563665</v>
+        <v>1.041724940633298</v>
       </c>
       <c r="M11">
-        <v>1.029014296484397</v>
+        <v>1.060025741100852</v>
       </c>
       <c r="N11">
-        <v>1.010802671308096</v>
+        <v>1.019138488497623</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9925761822159667</v>
+        <v>1.03934558842447</v>
       </c>
       <c r="D12">
-        <v>1.016185036042757</v>
+        <v>1.048396745977135</v>
       </c>
       <c r="E12">
-        <v>1.001122935776796</v>
+        <v>1.037937962455102</v>
       </c>
       <c r="F12">
-        <v>1.012874424619342</v>
+        <v>1.056251583330807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044520292250961</v>
+        <v>1.044165648275389</v>
       </c>
       <c r="J12">
-        <v>1.022698088736025</v>
+        <v>1.04596748705721</v>
       </c>
       <c r="K12">
-        <v>1.031008589391748</v>
+        <v>1.051962858143196</v>
       </c>
       <c r="L12">
-        <v>1.01622865368526</v>
+        <v>1.041542774370787</v>
       </c>
       <c r="M12">
-        <v>1.027759058788405</v>
+        <v>1.059789187464933</v>
       </c>
       <c r="N12">
-        <v>1.010450873547815</v>
+        <v>1.019076107299835</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9928990240550162</v>
+        <v>1.039402879650842</v>
       </c>
       <c r="D13">
-        <v>1.016449171778744</v>
+        <v>1.048444955729916</v>
       </c>
       <c r="E13">
-        <v>1.001383046596795</v>
+        <v>1.037986842366178</v>
       </c>
       <c r="F13">
-        <v>1.013193569119447</v>
+        <v>1.056311971363018</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044656120820996</v>
+        <v>1.044185494616838</v>
       </c>
       <c r="J13">
-        <v>1.022913247597225</v>
+        <v>1.046006224123987</v>
       </c>
       <c r="K13">
-        <v>1.031224874649545</v>
+        <v>1.052001382666271</v>
       </c>
       <c r="L13">
-        <v>1.016439852469463</v>
+        <v>1.041581852641561</v>
       </c>
       <c r="M13">
-        <v>1.028029092047065</v>
+        <v>1.059839930323561</v>
       </c>
       <c r="N13">
-        <v>1.010526568388561</v>
+        <v>1.019089491504813</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9939531954151899</v>
+        <v>1.039590596890226</v>
       </c>
       <c r="D14">
-        <v>1.017311808925943</v>
+        <v>1.048602917048673</v>
       </c>
       <c r="E14">
-        <v>1.002232643820983</v>
+        <v>1.038147009628806</v>
       </c>
       <c r="F14">
-        <v>1.014235914466906</v>
+        <v>1.056509850760676</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045099336143541</v>
+        <v>1.044250480134589</v>
       </c>
       <c r="J14">
-        <v>1.02361572724439</v>
+        <v>1.046133129652182</v>
       </c>
       <c r="K14">
-        <v>1.031931022207135</v>
+        <v>1.052127589411239</v>
       </c>
       <c r="L14">
-        <v>1.017129491982118</v>
+        <v>1.041709884060448</v>
       </c>
       <c r="M14">
-        <v>1.028910888418709</v>
+        <v>1.060006188089256</v>
       </c>
       <c r="N14">
-        <v>1.010773696212229</v>
+        <v>1.019133333502788</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9945999413887594</v>
+        <v>1.039706254378737</v>
       </c>
       <c r="D15">
-        <v>1.017841165742421</v>
+        <v>1.048700241073715</v>
       </c>
       <c r="E15">
-        <v>1.002754078854544</v>
+        <v>1.038245700553297</v>
       </c>
       <c r="F15">
-        <v>1.014875592674141</v>
+        <v>1.056631781152354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045371020232832</v>
+        <v>1.044290487336093</v>
       </c>
       <c r="J15">
-        <v>1.024046647291001</v>
+        <v>1.046211305534217</v>
       </c>
       <c r="K15">
-        <v>1.032364184690641</v>
+        <v>1.052205332936692</v>
       </c>
       <c r="L15">
-        <v>1.017552603596115</v>
+        <v>1.041788759693298</v>
       </c>
       <c r="M15">
-        <v>1.02945192520431</v>
+        <v>1.060108621184396</v>
       </c>
       <c r="N15">
-        <v>1.01092528250489</v>
+        <v>1.0191603365571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9983230972765547</v>
+        <v>1.040379411761375</v>
       </c>
       <c r="D16">
-        <v>1.020890282505897</v>
+        <v>1.049266691394028</v>
       </c>
       <c r="E16">
-        <v>1.005758775917134</v>
+        <v>1.038820225005283</v>
       </c>
       <c r="F16">
-        <v>1.018560858986762</v>
+        <v>1.057341627370871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046931457525467</v>
+        <v>1.044522850124236</v>
       </c>
       <c r="J16">
-        <v>1.026526406667124</v>
+        <v>1.04666609715945</v>
       </c>
       <c r="K16">
-        <v>1.034856728156178</v>
+        <v>1.052657580345792</v>
       </c>
       <c r="L16">
-        <v>1.019988452022858</v>
+        <v>1.042247716489861</v>
       </c>
       <c r="M16">
-        <v>1.032567169380164</v>
+        <v>1.060704768344255</v>
       </c>
       <c r="N16">
-        <v>1.01179745464131</v>
+        <v>1.019317361738921</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000623326127125</v>
+        <v>1.040801649397568</v>
       </c>
       <c r="D17">
-        <v>1.022775537609895</v>
+        <v>1.04962199534964</v>
       </c>
       <c r="E17">
-        <v>1.007617623504671</v>
+        <v>1.03918069767144</v>
       </c>
       <c r="F17">
-        <v>1.020840087066105</v>
+        <v>1.0577870353082</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047892334938951</v>
+        <v>1.04466816810069</v>
       </c>
       <c r="J17">
-        <v>1.028057571887257</v>
+        <v>1.04695117730387</v>
       </c>
       <c r="K17">
-        <v>1.036395675701446</v>
+        <v>1.052941040130357</v>
       </c>
       <c r="L17">
-        <v>1.021493393608391</v>
+        <v>1.042535490543967</v>
       </c>
       <c r="M17">
-        <v>1.034492321269061</v>
+        <v>1.061078665219072</v>
       </c>
       <c r="N17">
-        <v>1.012335854245533</v>
+        <v>1.01941573241645</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001952729270826</v>
+        <v>1.041047927899418</v>
       </c>
       <c r="D18">
-        <v>1.023865608209267</v>
+        <v>1.049829232640028</v>
       </c>
       <c r="E18">
-        <v>1.008692803729066</v>
+        <v>1.039390987242633</v>
       </c>
       <c r="F18">
-        <v>1.022158202020606</v>
+        <v>1.058046884903487</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048446503087223</v>
+        <v>1.044752772169161</v>
       </c>
       <c r="J18">
-        <v>1.028942167286962</v>
+        <v>1.047117388241977</v>
       </c>
       <c r="K18">
-        <v>1.037284724755605</v>
+        <v>1.053106297119753</v>
       </c>
       <c r="L18">
-        <v>1.022363156302046</v>
+        <v>1.042703302019584</v>
       </c>
       <c r="M18">
-        <v>1.035605111726338</v>
+        <v>1.06129673488308</v>
       </c>
       <c r="N18">
-        <v>1.012646848435742</v>
+        <v>1.019473064570292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002403975492488</v>
+        <v>1.041131901585578</v>
       </c>
       <c r="D19">
-        <v>1.024235698779539</v>
+        <v>1.049899894272331</v>
       </c>
       <c r="E19">
-        <v>1.009057902934061</v>
+        <v>1.039462695974896</v>
       </c>
       <c r="F19">
-        <v>1.022605759050989</v>
+        <v>1.058135495512866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048634407972119</v>
+        <v>1.044781593270026</v>
       </c>
       <c r="J19">
-        <v>1.02924237207923</v>
+        <v>1.047174049760187</v>
       </c>
       <c r="K19">
-        <v>1.037586433576657</v>
+        <v>1.053162631868878</v>
       </c>
       <c r="L19">
-        <v>1.022658380905842</v>
+        <v>1.042760514233046</v>
       </c>
       <c r="M19">
-        <v>1.035982857437635</v>
+        <v>1.061371087953338</v>
       </c>
       <c r="N19">
-        <v>1.012752380854733</v>
+        <v>1.019492605584663</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.0003778126032</v>
+        <v>1.040756347877063</v>
       </c>
       <c r="D20">
-        <v>1.022574263682586</v>
+        <v>1.049583875167023</v>
       </c>
       <c r="E20">
-        <v>1.007419129562629</v>
+        <v>1.03914201905987</v>
       </c>
       <c r="F20">
-        <v>1.020596726523787</v>
+        <v>1.0577392420133</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047789896808407</v>
+        <v>1.044652593144063</v>
       </c>
       <c r="J20">
-        <v>1.027894177973021</v>
+        <v>1.046920598298604</v>
       </c>
       <c r="K20">
-        <v>1.036231455669696</v>
+        <v>1.05291063588641</v>
       </c>
       <c r="L20">
-        <v>1.021332765061258</v>
+        <v>1.042504619483847</v>
       </c>
       <c r="M20">
-        <v>1.03428682423647</v>
+        <v>1.061038551493637</v>
       </c>
       <c r="N20">
-        <v>1.012278405949872</v>
+        <v>1.019405182910712</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9936433464689626</v>
+        <v>1.03953531911391</v>
       </c>
       <c r="D21">
-        <v>1.017058231915982</v>
+        <v>1.048556401618611</v>
       </c>
       <c r="E21">
-        <v>1.001982883224512</v>
+        <v>1.038099842989708</v>
       </c>
       <c r="F21">
-        <v>1.01392950221895</v>
+        <v>1.056451578051979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044969112034961</v>
+        <v>1.044231350294523</v>
       </c>
       <c r="J21">
-        <v>1.023409262058776</v>
+        <v>1.046095762221366</v>
       </c>
       <c r="K21">
-        <v>1.031723480553295</v>
+        <v>1.052090428132324</v>
       </c>
       <c r="L21">
-        <v>1.016926786402183</v>
+        <v>1.041672183821801</v>
       </c>
       <c r="M21">
-        <v>1.028651695583102</v>
+        <v>1.059957230113841</v>
       </c>
       <c r="N21">
-        <v>1.010701064857088</v>
+        <v>1.019120425095256</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9892894870325079</v>
+        <v>1.038767553875976</v>
       </c>
       <c r="D22">
-        <v>1.013497304873066</v>
+        <v>1.047910337813799</v>
       </c>
       <c r="E22">
-        <v>0.9984770037916746</v>
+        <v>1.037444873203363</v>
       </c>
       <c r="F22">
-        <v>1.009627374702197</v>
+        <v>1.055642425555574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043135079376842</v>
+        <v>1.043965078417523</v>
       </c>
       <c r="J22">
-        <v>1.020507081065692</v>
+        <v>1.045576508978478</v>
       </c>
       <c r="K22">
-        <v>1.028806037131891</v>
+        <v>1.051574005701461</v>
       </c>
       <c r="L22">
-        <v>1.014078692030625</v>
+        <v>1.041148416578326</v>
       </c>
       <c r="M22">
-        <v>1.025010493960671</v>
+        <v>1.059277194810416</v>
       </c>
       <c r="N22">
-        <v>1.009679976679083</v>
+        <v>1.018940974040137</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9916093492640538</v>
+        <v>1.039174566345141</v>
       </c>
       <c r="D23">
-        <v>1.015394150144346</v>
+        <v>1.048252833281973</v>
       </c>
       <c r="E23">
-        <v>1.00034419084608</v>
+        <v>1.037792057825546</v>
       </c>
       <c r="F23">
-        <v>1.011918875646183</v>
+        <v>1.056071329846243</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044113261582554</v>
+        <v>1.044106368820348</v>
       </c>
       <c r="J23">
-        <v>1.022053677122419</v>
+        <v>1.045851836285319</v>
       </c>
       <c r="K23">
-        <v>1.030360796098444</v>
+        <v>1.051847839835688</v>
       </c>
       <c r="L23">
-        <v>1.015596178850856</v>
+        <v>1.041426111760938</v>
       </c>
       <c r="M23">
-        <v>1.02695042748948</v>
+        <v>1.059637710234974</v>
       </c>
       <c r="N23">
-        <v>1.010224154790763</v>
+        <v>1.019036143537549</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000488787455233</v>
+        <v>1.040776817701102</v>
       </c>
       <c r="D24">
-        <v>1.022665240201658</v>
+        <v>1.049601100053511</v>
       </c>
       <c r="E24">
-        <v>1.007508848344524</v>
+        <v>1.039159496160643</v>
       </c>
       <c r="F24">
-        <v>1.020706725574266</v>
+        <v>1.057760837589187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047836203604973</v>
+        <v>1.04465963128292</v>
       </c>
       <c r="J24">
-        <v>1.027968034880038</v>
+        <v>1.046934415855539</v>
       </c>
       <c r="K24">
-        <v>1.036305686128406</v>
+        <v>1.052924374503485</v>
       </c>
       <c r="L24">
-        <v>1.021405370989856</v>
+        <v>1.042518568917523</v>
       </c>
       <c r="M24">
-        <v>1.034379710694014</v>
+        <v>1.061056677215064</v>
       </c>
       <c r="N24">
-        <v>1.012304373752245</v>
+        <v>1.019409949919725</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010314782988389</v>
+        <v>1.042635925737189</v>
       </c>
       <c r="D25">
-        <v>1.030730365603136</v>
+        <v>1.051165473366923</v>
       </c>
       <c r="E25">
-        <v>1.015470469740808</v>
+        <v>1.040747586154485</v>
       </c>
       <c r="F25">
-        <v>1.030463837192855</v>
+        <v>1.05972340718711</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051911068414907</v>
+        <v>1.045295485815327</v>
       </c>
       <c r="J25">
-        <v>1.034499930966494</v>
+        <v>1.048187885869598</v>
       </c>
       <c r="K25">
-        <v>1.042869652501965</v>
+        <v>1.054170483605589</v>
       </c>
       <c r="L25">
-        <v>1.027833281347705</v>
+        <v>1.043784647331742</v>
       </c>
       <c r="M25">
-        <v>1.042606956206155</v>
+        <v>1.062702602498928</v>
       </c>
       <c r="N25">
-        <v>1.014599683776072</v>
+        <v>1.019841934777432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044118602376014</v>
+        <v>1.017808273476761</v>
       </c>
       <c r="D2">
-        <v>1.052413044249146</v>
+        <v>1.036893441408324</v>
       </c>
       <c r="E2">
-        <v>1.042015255067438</v>
+        <v>1.021565902919765</v>
       </c>
       <c r="F2">
-        <v>1.06129037144762</v>
+        <v>1.037928949996635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045797667916304</v>
+        <v>1.054980901503546</v>
       </c>
       <c r="J2">
-        <v>1.049185399982641</v>
+        <v>1.039469082580572</v>
       </c>
       <c r="K2">
-        <v>1.055161846104649</v>
+        <v>1.047861649678925</v>
       </c>
       <c r="L2">
-        <v>1.044793137517146</v>
+        <v>1.032732748966647</v>
       </c>
       <c r="M2">
-        <v>1.064014833492214</v>
+        <v>1.04888400275849</v>
       </c>
       <c r="N2">
-        <v>1.020185035266913</v>
+        <v>1.016343667678664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045195091153771</v>
+        <v>1.023068304761853</v>
       </c>
       <c r="D3">
-        <v>1.053318796776867</v>
+        <v>1.041225604626141</v>
       </c>
       <c r="E3">
-        <v>1.04293628443152</v>
+        <v>1.02585706858865</v>
       </c>
       <c r="F3">
-        <v>1.062429079701077</v>
+        <v>1.043182245580986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046159415554812</v>
+        <v>1.05711309790729</v>
       </c>
       <c r="J3">
-        <v>1.049908384772614</v>
+        <v>1.042949266073594</v>
       </c>
       <c r="K3">
-        <v>1.055880200810739</v>
+        <v>1.051356829697366</v>
       </c>
       <c r="L3">
-        <v>1.045524623071276</v>
+        <v>1.036169456950689</v>
       </c>
       <c r="M3">
-        <v>1.064967316977219</v>
+        <v>1.053290879096559</v>
       </c>
       <c r="N3">
-        <v>1.020433315968315</v>
+        <v>1.017563590722205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045891626449108</v>
+        <v>1.026393689450694</v>
       </c>
       <c r="D4">
-        <v>1.053904836583693</v>
+        <v>1.043966813822867</v>
       </c>
       <c r="E4">
-        <v>1.043532525358555</v>
+        <v>1.028575348569342</v>
       </c>
       <c r="F4">
-        <v>1.063166344919341</v>
+        <v>1.046509241362228</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046392158420051</v>
+        <v>1.058450315758777</v>
       </c>
       <c r="J4">
-        <v>1.050375605218781</v>
+        <v>1.045145518364441</v>
       </c>
       <c r="K4">
-        <v>1.056344349391665</v>
+        <v>1.053562048549669</v>
       </c>
       <c r="L4">
-        <v>1.04599758914073</v>
+        <v>1.038340705853908</v>
       </c>
       <c r="M4">
-        <v>1.065583495807906</v>
+        <v>1.056076965095817</v>
       </c>
       <c r="N4">
-        <v>1.020593581147256</v>
+        <v>1.018332689499505</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046184444423097</v>
+        <v>1.027773719530458</v>
       </c>
       <c r="D5">
-        <v>1.05415119739637</v>
+        <v>1.045104942357713</v>
       </c>
       <c r="E5">
-        <v>1.043783250302278</v>
+        <v>1.02970467770963</v>
       </c>
       <c r="F5">
-        <v>1.063476397929887</v>
+        <v>1.047891316790854</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046489684656141</v>
+        <v>1.059002639667138</v>
       </c>
       <c r="J5">
-        <v>1.050571881341492</v>
+        <v>1.046055983162145</v>
       </c>
       <c r="K5">
-        <v>1.056539315896045</v>
+        <v>1.054476106354121</v>
       </c>
       <c r="L5">
-        <v>1.046196339285977</v>
+        <v>1.039241385196482</v>
       </c>
       <c r="M5">
-        <v>1.065842503618876</v>
+        <v>1.05723316444907</v>
       </c>
       <c r="N5">
-        <v>1.020660863404083</v>
+        <v>1.018651328619864</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04623360954369</v>
+        <v>1.028004400684867</v>
       </c>
       <c r="D6">
-        <v>1.054192561852303</v>
+        <v>1.045295217830567</v>
       </c>
       <c r="E6">
-        <v>1.043825351945115</v>
+        <v>1.029893524386404</v>
       </c>
       <c r="F6">
-        <v>1.063528463458763</v>
+        <v>1.048122419898663</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046506041042861</v>
+        <v>1.059094809115</v>
       </c>
       <c r="J6">
-        <v>1.050604828561732</v>
+        <v>1.046208114872679</v>
       </c>
       <c r="K6">
-        <v>1.056572042156886</v>
+        <v>1.054628830994003</v>
       </c>
       <c r="L6">
-        <v>1.04622970533655</v>
+        <v>1.039391915819087</v>
       </c>
       <c r="M6">
-        <v>1.06588599019412</v>
+        <v>1.057426428418734</v>
       </c>
       <c r="N6">
-        <v>1.020672154921788</v>
+        <v>1.018704559081486</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045895539118036</v>
+        <v>1.026412199081988</v>
       </c>
       <c r="D7">
-        <v>1.053908128509627</v>
+        <v>1.043982076921892</v>
       </c>
       <c r="E7">
-        <v>1.043535875301327</v>
+        <v>1.028590490817107</v>
       </c>
       <c r="F7">
-        <v>1.063170487443252</v>
+        <v>1.046527773025477</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046393462823269</v>
+        <v>1.058457734199804</v>
       </c>
       <c r="J7">
-        <v>1.050378228433135</v>
+        <v>1.045157733868645</v>
       </c>
       <c r="K7">
-        <v>1.056346955178421</v>
+        <v>1.053574312757444</v>
       </c>
       <c r="L7">
-        <v>1.046000245183117</v>
+        <v>1.038352787781035</v>
       </c>
       <c r="M7">
-        <v>1.065586956815452</v>
+        <v>1.056092472739048</v>
       </c>
       <c r="N7">
-        <v>1.02059448054248</v>
+        <v>1.018336965389988</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044482412262068</v>
+        <v>1.019602591833203</v>
       </c>
       <c r="D8">
-        <v>1.052719156318909</v>
+        <v>1.03837070214798</v>
       </c>
       <c r="E8">
-        <v>1.042326464548004</v>
+        <v>1.023028549725685</v>
       </c>
       <c r="F8">
-        <v>1.061675111258432</v>
+        <v>1.039719717730946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045920198051401</v>
+        <v>1.055710477676161</v>
       </c>
       <c r="J8">
-        <v>1.049429860154028</v>
+        <v>1.040657052725751</v>
       </c>
       <c r="K8">
-        <v>1.055404757208758</v>
+        <v>1.049054840557318</v>
       </c>
       <c r="L8">
-        <v>1.045040419756818</v>
+        <v>1.033905364355371</v>
       </c>
       <c r="M8">
-        <v>1.064336759169036</v>
+        <v>1.050387252787629</v>
       </c>
       <c r="N8">
-        <v>1.020269023392067</v>
+        <v>1.016760245483798</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041992088415384</v>
+        <v>1.006967561816241</v>
       </c>
       <c r="D9">
-        <v>1.050623713274586</v>
+        <v>1.027980838130151</v>
       </c>
       <c r="E9">
-        <v>1.040197429248368</v>
+        <v>1.012754405254656</v>
       </c>
       <c r="F9">
-        <v>1.059043464021913</v>
+        <v>1.02713614056785</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045076041565082</v>
+        <v>1.050528825144978</v>
       </c>
       <c r="J9">
-        <v>1.047754122787067</v>
+        <v>1.032276654129411</v>
       </c>
       <c r="K9">
-        <v>1.053739313134801</v>
+        <v>1.0406356906914</v>
       </c>
       <c r="L9">
-        <v>1.043346374995791</v>
+        <v>1.025643885735418</v>
       </c>
       <c r="M9">
-        <v>1.062132659050097</v>
+        <v>1.039803777056318</v>
       </c>
       <c r="N9">
-        <v>1.019692550505427</v>
+        <v>1.013818736437366</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040331694072561</v>
+        <v>0.9980614585392974</v>
       </c>
       <c r="D10">
-        <v>1.049226537881583</v>
+        <v>1.020675914804612</v>
       </c>
       <c r="E10">
-        <v>1.03877949244934</v>
+        <v>1.005547462739381</v>
       </c>
       <c r="F10">
-        <v>1.057291298833279</v>
+        <v>1.018301726132928</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044506406486332</v>
+        <v>1.046822005130581</v>
       </c>
       <c r="J10">
-        <v>1.046633870680484</v>
+        <v>1.026352200787664</v>
       </c>
       <c r="K10">
-        <v>1.052625535790538</v>
+        <v>1.034681631231813</v>
       </c>
       <c r="L10">
-        <v>1.042215189530505</v>
+        <v>1.019817273236939</v>
       </c>
       <c r="M10">
-        <v>1.060662511946408</v>
+        <v>1.032348216997066</v>
       </c>
       <c r="N10">
-        <v>1.019306238709303</v>
+        <v>1.01173619208368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039612674072357</v>
+        <v>0.9940768107351938</v>
       </c>
       <c r="D11">
-        <v>1.048621494667264</v>
+        <v>1.017412980165126</v>
       </c>
       <c r="E11">
-        <v>1.038165847709126</v>
+        <v>1.002332296308576</v>
       </c>
       <c r="F11">
-        <v>1.056533124648735</v>
+        <v>1.01435816784605</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04425811876756</v>
+        <v>1.045151278117191</v>
       </c>
       <c r="J11">
-        <v>1.046148053011116</v>
+        <v>1.023698094364016</v>
       </c>
       <c r="K11">
-        <v>1.052142430347424</v>
+        <v>1.032013818403176</v>
       </c>
       <c r="L11">
-        <v>1.041724940633298</v>
+        <v>1.017210362563665</v>
       </c>
       <c r="M11">
-        <v>1.060025741100852</v>
+        <v>1.029014296484396</v>
       </c>
       <c r="N11">
-        <v>1.019138488497623</v>
+        <v>1.010802671308096</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03934558842447</v>
+        <v>0.9925761822159676</v>
       </c>
       <c r="D12">
-        <v>1.048396745977135</v>
+        <v>1.016185036042758</v>
       </c>
       <c r="E12">
-        <v>1.037937962455102</v>
+        <v>1.001122935776797</v>
       </c>
       <c r="F12">
-        <v>1.056251583330807</v>
+        <v>1.012874424619343</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044165648275389</v>
+        <v>1.044520292250961</v>
       </c>
       <c r="J12">
-        <v>1.04596748705721</v>
+        <v>1.022698088736025</v>
       </c>
       <c r="K12">
-        <v>1.051962858143196</v>
+        <v>1.031008589391749</v>
       </c>
       <c r="L12">
-        <v>1.041542774370787</v>
+        <v>1.01622865368526</v>
       </c>
       <c r="M12">
-        <v>1.059789187464933</v>
+        <v>1.027759058788406</v>
       </c>
       <c r="N12">
-        <v>1.019076107299835</v>
+        <v>1.010450873547815</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039402879650842</v>
+        <v>0.9928990240550161</v>
       </c>
       <c r="D13">
-        <v>1.048444955729916</v>
+        <v>1.016449171778744</v>
       </c>
       <c r="E13">
-        <v>1.037986842366178</v>
+        <v>1.001383046596795</v>
       </c>
       <c r="F13">
-        <v>1.056311971363018</v>
+        <v>1.013193569119447</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044185494616838</v>
+        <v>1.044656120820996</v>
       </c>
       <c r="J13">
-        <v>1.046006224123987</v>
+        <v>1.022913247597225</v>
       </c>
       <c r="K13">
-        <v>1.052001382666271</v>
+        <v>1.031224874649545</v>
       </c>
       <c r="L13">
-        <v>1.041581852641561</v>
+        <v>1.016439852469463</v>
       </c>
       <c r="M13">
-        <v>1.059839930323561</v>
+        <v>1.028029092047065</v>
       </c>
       <c r="N13">
-        <v>1.019089491504813</v>
+        <v>1.010526568388561</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039590596890226</v>
+        <v>0.9939531954151893</v>
       </c>
       <c r="D14">
-        <v>1.048602917048673</v>
+        <v>1.017311808925942</v>
       </c>
       <c r="E14">
-        <v>1.038147009628806</v>
+        <v>1.002232643820983</v>
       </c>
       <c r="F14">
-        <v>1.056509850760676</v>
+        <v>1.014235914466906</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044250480134589</v>
+        <v>1.045099336143541</v>
       </c>
       <c r="J14">
-        <v>1.046133129652182</v>
+        <v>1.023615727244389</v>
       </c>
       <c r="K14">
-        <v>1.052127589411239</v>
+        <v>1.031931022207134</v>
       </c>
       <c r="L14">
-        <v>1.041709884060448</v>
+        <v>1.017129491982118</v>
       </c>
       <c r="M14">
-        <v>1.060006188089256</v>
+        <v>1.028910888418709</v>
       </c>
       <c r="N14">
-        <v>1.019133333502788</v>
+        <v>1.010773696212229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039706254378737</v>
+        <v>0.9945999413887603</v>
       </c>
       <c r="D15">
-        <v>1.048700241073715</v>
+        <v>1.017841165742422</v>
       </c>
       <c r="E15">
-        <v>1.038245700553297</v>
+        <v>1.002754078854545</v>
       </c>
       <c r="F15">
-        <v>1.056631781152354</v>
+        <v>1.014875592674142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044290487336093</v>
+        <v>1.045371020232832</v>
       </c>
       <c r="J15">
-        <v>1.046211305534217</v>
+        <v>1.024046647291002</v>
       </c>
       <c r="K15">
-        <v>1.052205332936692</v>
+        <v>1.032364184690642</v>
       </c>
       <c r="L15">
-        <v>1.041788759693298</v>
+        <v>1.017552603596116</v>
       </c>
       <c r="M15">
-        <v>1.060108621184396</v>
+        <v>1.029451925204312</v>
       </c>
       <c r="N15">
-        <v>1.0191603365571</v>
+        <v>1.01092528250489</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040379411761375</v>
+        <v>0.9983230972765547</v>
       </c>
       <c r="D16">
-        <v>1.049266691394028</v>
+        <v>1.020890282505897</v>
       </c>
       <c r="E16">
-        <v>1.038820225005283</v>
+        <v>1.005758775917134</v>
       </c>
       <c r="F16">
-        <v>1.057341627370871</v>
+        <v>1.018560858986762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044522850124236</v>
+        <v>1.046931457525467</v>
       </c>
       <c r="J16">
-        <v>1.04666609715945</v>
+        <v>1.026526406667124</v>
       </c>
       <c r="K16">
-        <v>1.052657580345792</v>
+        <v>1.034856728156178</v>
       </c>
       <c r="L16">
-        <v>1.042247716489861</v>
+        <v>1.019988452022857</v>
       </c>
       <c r="M16">
-        <v>1.060704768344255</v>
+        <v>1.032567169380164</v>
       </c>
       <c r="N16">
-        <v>1.019317361738921</v>
+        <v>1.01179745464131</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040801649397568</v>
+        <v>1.000623326127125</v>
       </c>
       <c r="D17">
-        <v>1.04962199534964</v>
+        <v>1.022775537609895</v>
       </c>
       <c r="E17">
-        <v>1.03918069767144</v>
+        <v>1.007617623504671</v>
       </c>
       <c r="F17">
-        <v>1.0577870353082</v>
+        <v>1.020840087066105</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04466816810069</v>
+        <v>1.047892334938951</v>
       </c>
       <c r="J17">
-        <v>1.04695117730387</v>
+        <v>1.028057571887257</v>
       </c>
       <c r="K17">
-        <v>1.052941040130357</v>
+        <v>1.036395675701446</v>
       </c>
       <c r="L17">
-        <v>1.042535490543967</v>
+        <v>1.021493393608391</v>
       </c>
       <c r="M17">
-        <v>1.061078665219072</v>
+        <v>1.03449232126906</v>
       </c>
       <c r="N17">
-        <v>1.01941573241645</v>
+        <v>1.012335854245534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041047927899418</v>
+        <v>1.001952729270825</v>
       </c>
       <c r="D18">
-        <v>1.049829232640028</v>
+        <v>1.023865608209266</v>
       </c>
       <c r="E18">
-        <v>1.039390987242633</v>
+        <v>1.008692803729065</v>
       </c>
       <c r="F18">
-        <v>1.058046884903487</v>
+        <v>1.022158202020605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044752772169161</v>
+        <v>1.048446503087222</v>
       </c>
       <c r="J18">
-        <v>1.047117388241977</v>
+        <v>1.028942167286961</v>
       </c>
       <c r="K18">
-        <v>1.053106297119753</v>
+        <v>1.037284724755604</v>
       </c>
       <c r="L18">
-        <v>1.042703302019584</v>
+        <v>1.022363156302045</v>
       </c>
       <c r="M18">
-        <v>1.06129673488308</v>
+        <v>1.035605111726337</v>
       </c>
       <c r="N18">
-        <v>1.019473064570292</v>
+        <v>1.012646848435742</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041131901585578</v>
+        <v>1.002403975492488</v>
       </c>
       <c r="D19">
-        <v>1.049899894272331</v>
+        <v>1.024235698779539</v>
       </c>
       <c r="E19">
-        <v>1.039462695974896</v>
+        <v>1.009057902934061</v>
       </c>
       <c r="F19">
-        <v>1.058135495512866</v>
+        <v>1.022605759050989</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044781593270026</v>
+        <v>1.048634407972119</v>
       </c>
       <c r="J19">
-        <v>1.047174049760187</v>
+        <v>1.02924237207923</v>
       </c>
       <c r="K19">
-        <v>1.053162631868878</v>
+        <v>1.037586433576658</v>
       </c>
       <c r="L19">
-        <v>1.042760514233046</v>
+        <v>1.022658380905842</v>
       </c>
       <c r="M19">
-        <v>1.061371087953338</v>
+        <v>1.035982857437636</v>
       </c>
       <c r="N19">
-        <v>1.019492605584663</v>
+        <v>1.012752380854733</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040756347877063</v>
+        <v>1.000377812603199</v>
       </c>
       <c r="D20">
-        <v>1.049583875167023</v>
+        <v>1.022574263682585</v>
       </c>
       <c r="E20">
-        <v>1.03914201905987</v>
+        <v>1.007419129562628</v>
       </c>
       <c r="F20">
-        <v>1.0577392420133</v>
+        <v>1.020596726523786</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044652593144063</v>
+        <v>1.047789896808406</v>
       </c>
       <c r="J20">
-        <v>1.046920598298604</v>
+        <v>1.02789417797302</v>
       </c>
       <c r="K20">
-        <v>1.05291063588641</v>
+        <v>1.036231455669695</v>
       </c>
       <c r="L20">
-        <v>1.042504619483847</v>
+        <v>1.021332765061257</v>
       </c>
       <c r="M20">
-        <v>1.061038551493637</v>
+        <v>1.034286824236469</v>
       </c>
       <c r="N20">
-        <v>1.019405182910712</v>
+        <v>1.012278405949872</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03953531911391</v>
+        <v>0.9936433464689615</v>
       </c>
       <c r="D21">
-        <v>1.048556401618611</v>
+        <v>1.017058231915981</v>
       </c>
       <c r="E21">
-        <v>1.038099842989708</v>
+        <v>1.001982883224511</v>
       </c>
       <c r="F21">
-        <v>1.056451578051979</v>
+        <v>1.013929502218949</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044231350294523</v>
+        <v>1.04496911203496</v>
       </c>
       <c r="J21">
-        <v>1.046095762221366</v>
+        <v>1.023409262058775</v>
       </c>
       <c r="K21">
-        <v>1.052090428132324</v>
+        <v>1.031723480553294</v>
       </c>
       <c r="L21">
-        <v>1.041672183821801</v>
+        <v>1.016926786402181</v>
       </c>
       <c r="M21">
-        <v>1.059957230113841</v>
+        <v>1.0286516955831</v>
       </c>
       <c r="N21">
-        <v>1.019120425095256</v>
+        <v>1.010701064857087</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038767553875976</v>
+        <v>0.9892894870325079</v>
       </c>
       <c r="D22">
-        <v>1.047910337813799</v>
+        <v>1.013497304873065</v>
       </c>
       <c r="E22">
-        <v>1.037444873203363</v>
+        <v>0.9984770037916743</v>
       </c>
       <c r="F22">
-        <v>1.055642425555574</v>
+        <v>1.009627374702197</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043965078417523</v>
+        <v>1.043135079376842</v>
       </c>
       <c r="J22">
-        <v>1.045576508978478</v>
+        <v>1.020507081065692</v>
       </c>
       <c r="K22">
-        <v>1.051574005701461</v>
+        <v>1.028806037131891</v>
       </c>
       <c r="L22">
-        <v>1.041148416578326</v>
+        <v>1.014078692030625</v>
       </c>
       <c r="M22">
-        <v>1.059277194810416</v>
+        <v>1.025010493960671</v>
       </c>
       <c r="N22">
-        <v>1.018940974040137</v>
+        <v>1.009679976679083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039174566345141</v>
+        <v>0.9916093492640532</v>
       </c>
       <c r="D23">
-        <v>1.048252833281973</v>
+        <v>1.015394150144345</v>
       </c>
       <c r="E23">
-        <v>1.037792057825546</v>
+        <v>1.00034419084608</v>
       </c>
       <c r="F23">
-        <v>1.056071329846243</v>
+        <v>1.011918875646182</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044106368820348</v>
+        <v>1.044113261582553</v>
       </c>
       <c r="J23">
-        <v>1.045851836285319</v>
+        <v>1.022053677122418</v>
       </c>
       <c r="K23">
-        <v>1.051847839835688</v>
+        <v>1.030360796098444</v>
       </c>
       <c r="L23">
-        <v>1.041426111760938</v>
+        <v>1.015596178850855</v>
       </c>
       <c r="M23">
-        <v>1.059637710234974</v>
+        <v>1.02695042748948</v>
       </c>
       <c r="N23">
-        <v>1.019036143537549</v>
+        <v>1.010224154790763</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040776817701102</v>
+        <v>1.00048878745523</v>
       </c>
       <c r="D24">
-        <v>1.049601100053511</v>
+        <v>1.022665240201656</v>
       </c>
       <c r="E24">
-        <v>1.039159496160643</v>
+        <v>1.007508848344522</v>
       </c>
       <c r="F24">
-        <v>1.057760837589187</v>
+        <v>1.020706725574264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04465963128292</v>
+        <v>1.047836203604972</v>
       </c>
       <c r="J24">
-        <v>1.046934415855539</v>
+        <v>1.027968034880036</v>
       </c>
       <c r="K24">
-        <v>1.052924374503485</v>
+        <v>1.036305686128404</v>
       </c>
       <c r="L24">
-        <v>1.042518568917523</v>
+        <v>1.021405370989854</v>
       </c>
       <c r="M24">
-        <v>1.061056677215064</v>
+        <v>1.034379710694011</v>
       </c>
       <c r="N24">
-        <v>1.019409949919725</v>
+        <v>1.012304373752244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042635925737189</v>
+        <v>1.010314782988387</v>
       </c>
       <c r="D25">
-        <v>1.051165473366923</v>
+        <v>1.030730365603135</v>
       </c>
       <c r="E25">
-        <v>1.040747586154485</v>
+        <v>1.015470469740807</v>
       </c>
       <c r="F25">
-        <v>1.05972340718711</v>
+        <v>1.030463837192854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045295485815327</v>
+        <v>1.051911068414906</v>
       </c>
       <c r="J25">
-        <v>1.048187885869598</v>
+        <v>1.034499930966492</v>
       </c>
       <c r="K25">
-        <v>1.054170483605589</v>
+        <v>1.042869652501964</v>
       </c>
       <c r="L25">
-        <v>1.043784647331742</v>
+        <v>1.027833281347704</v>
       </c>
       <c r="M25">
-        <v>1.062702602498928</v>
+        <v>1.042606956206154</v>
       </c>
       <c r="N25">
-        <v>1.019841934777432</v>
+        <v>1.014599683776072</v>
       </c>
     </row>
   </sheetData>
